--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1272 +397,1372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>34.74698336881789</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.421742238202096</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>7.618474931960215</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F2">
         <v>12.34718683282032</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>26.88677111970811</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H2" t="n">
-        <v>83.4826269868491</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>88.63299682131016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>34.51315440940457</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.292492943820088</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>16.08344707858267</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F3">
         <v>9.995341721806925</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>23.11318920817015</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H3" t="n">
-        <v>85.68982810479511</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>90.84019793925617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>36.57084925224171</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>2.584985887640175</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>12.69745821993369</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="F4">
         <v>9.05460367740157</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>21.22639825240114</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.615139733691643</v>
       </c>
-      <c r="H4" t="n">
-        <v>83.74943502330993</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>90.18739731638624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>48.02846826349389</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20.73918175922503</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>9.013147210306851</v>
+      </c>
+      <c r="F5">
         <v>9.407380444053578</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>12.26414121249844</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H5" t="n">
-        <v>92.03611948295571</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>101.0492666932626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>62.15173741205781</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>17.77644150790717</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>10.7299371551272</v>
+      </c>
+      <c r="F6">
         <v>7.878681121894872</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>13.20753669038294</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H6" t="n">
-        <v>102.3528459471635</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>113.0827831022907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>52.70504745176011</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>10.58121518327808</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>13.30512207235773</v>
+      </c>
+      <c r="F7">
         <v>5.526836010881476</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>12.26414121249844</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>1.153671238351173</v>
       </c>
-      <c r="H7" t="n">
-        <v>82.87715756867934</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>96.18227964103707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>37.31910192236428</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.550991532584105</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>7.195226324629091</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>8.154752237896671</v>
+      </c>
+      <c r="F8">
         <v>3.174990899868082</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>20.28300277451665</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H8" t="n">
-        <v>69.98478194930269</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>78.13953418719936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>23.19583277380036</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>7.618474931960215</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>12.44672709994755</v>
+      </c>
+      <c r="F9">
         <v>3.292583155418753</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>21.69809599134339</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H9" t="n">
-        <v>56.811216866485</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>69.25794396643256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>18.8466141287128</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.421742238202096</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.385988858648984</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="F10">
         <v>1.999068344361385</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>13.20753669038294</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>38.8609502603082</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>42.29453014994891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>12.39293484890543</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.269745821993369</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F11">
         <v>1.411107066608037</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>14.15093216826743</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>29.61246778892029</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>35.19203510958643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.014868782399303</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.163243649438078</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>3.433579889640703</v>
+      </c>
+      <c r="F12">
         <v>0.7055535333040184</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>4.245279650480229</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H12" t="n">
-        <v>14.20617707795411</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>17.63975696759481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>4.255687061322244</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.516997177528035</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F13">
         <v>0.7055535333040184</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>3.773581911537981</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>10.09831689835452</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>12.24430432937996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2.478586969781088</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.269745821993369</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F14">
         <v>1.058330299956028</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>7.075466084133715</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>12.65762494215625</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>14.37441488697661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.169144797066551</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.269745821993369</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.4291974862050879</v>
+      </c>
+      <c r="F15">
         <v>1.058330299956028</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>3.301884172595734</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>7.445351563521726</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>7.874549049726814</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.6547210863572686</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.423248607331123</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>0.3527767666520092</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>5.660372867306971</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>7.478867210793398</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.180073848021018</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F17">
         <v>0.940738044405358</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>11.79244347355619</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>16.75975258064481</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>18.47654252546517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.669589868756574</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.516997177528035</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.692994429324492</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>5.150369834461056</v>
+      </c>
+      <c r="F18">
         <v>3.057398644317413</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>26.41507338076588</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>39.35205350069239</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>44.50242333515344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>24.22468019521892</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>4.23248607331123</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>18.0262944206137</v>
+      </c>
+      <c r="F19">
         <v>6.114797288634826</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>37.7358191153798</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H19" t="n">
-        <v>73.38773329870152</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>91.41402771931521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>48.91701830926447</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>13.96720404192706</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>15.02191201717808</v>
+      </c>
+      <c r="F20">
         <v>10.1129339773576</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>27.35846885865036</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>1.384405486021409</v>
       </c>
-      <c r="H20" t="n">
-        <v>102.515526439513</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>117.537438456691</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>53.73389487317867</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.421742238202096</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>8.464972146622459</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>11.15913464133229</v>
+      </c>
+      <c r="F21">
         <v>8.81941916630023</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>25.47167790288137</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>1.384405486021409</v>
       </c>
-      <c r="H21" t="n">
-        <v>99.29611181320622</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>110.4552464545385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>41.9956811106305</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>11.85096100527145</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>11.15913464133229</v>
+      </c>
+      <c r="F22">
         <v>10.34811848845894</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>32.07544624807284</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>1.153671238351173</v>
       </c>
-      <c r="H22" t="n">
-        <v>98.32862315145896</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>109.4877577927912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>29.60274626172506</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>2.197238004494149</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9.734717968615827</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F23">
         <v>12.69996359947233</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>31.60374850913059</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>1.384405486021409</v>
       </c>
-      <c r="H23" t="n">
-        <v>87.22281982945937</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>91.51479469151023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>30.16393576431701</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>11.42771239794032</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>6.437962293076318</v>
+      </c>
+      <c r="F24">
         <v>11.75922555506697</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>28.30186433653486</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.6922027430107043</v>
       </c>
-      <c r="H24" t="n">
-        <v>83.12043656316192</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>89.55839885623824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>28.38683567277586</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.680240826966114</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>7.618474931960215</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F25">
         <v>7.408312099692194</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>20.75470051345889</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H25" t="n">
-        <v>66.31003254019375</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>71.88959986085989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>32.82958590162874</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>11.85096100527145</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>4.721172348255968</v>
+      </c>
+      <c r="F26">
         <v>11.52404104396563</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>23.11318920817015</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>1.153671238351173</v>
       </c>
-      <c r="H26" t="n">
-        <v>81.37619345806119</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>86.09736580631717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>31.80073848021016</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.03399435505607</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>9.311469361284709</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F27">
         <v>7.055535333040184</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>24.99998016393912</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H27" t="n">
-        <v>74.66318618887071</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>78.9551610509216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>35.07434391199651</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.421742238202096</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>15.66019847125155</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="F28">
         <v>10.46571074400961</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>22.16979373028564</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H28" t="n">
-        <v>85.71472608642634</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>93.01108335191283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>50.31999206574437</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.550991532584105</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>17.35319290057605</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>8.58394972410176</v>
+      </c>
+      <c r="F29">
         <v>11.17126427731363</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>15.09432764615192</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>1.153671238351173</v>
       </c>
-      <c r="H29" t="n">
-        <v>96.64343966072124</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>105.227389384823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>57.05426609684766</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.809490121348122</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>16.92994429324492</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>9.871542182717025</v>
+      </c>
+      <c r="F30">
         <v>7.290719844141523</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>10.84904799567169</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.153671238351173</v>
       </c>
-      <c r="H30" t="n">
-        <v>95.0871395896051</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>104.9586817723221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>53.50006591376536</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.292492943820088</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>18.19969011523829</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="F31">
         <v>5.644428266432147</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>17.45281634086316</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H31" t="n">
-        <v>96.55096207545952</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>110.2852816340223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>34.04549649057795</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.03399435505607</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>17.35319290057605</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>11.58833212753738</v>
+      </c>
+      <c r="F32">
         <v>4.938874733128129</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>19.8113050355744</v>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>77.18286351491261</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>88.77119564245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>21.51226426602452</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.550991532584105</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>8.888220753953584</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>13.73431955856281</v>
+      </c>
+      <c r="F33">
         <v>2.704621877665404</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>16.98111860192092</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>51.63721703214853</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>65.37153659071134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>18.19189304235553</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4.23248607331123</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>4.29197486205088</v>
+      </c>
+      <c r="F34">
         <v>2.351845111013394</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>14.62262990720968</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H34" t="n">
-        <v>40.53433344223412</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>44.826308304285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>14.40386389985991</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.163243649438078</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4.655734680642355</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="F35">
         <v>3.057398644317413</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>15.56602538509417</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H35" t="n">
-        <v>39.07700050702216</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>45.0857653138934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>7.43576090934326</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.539491643986739</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>3.004382403435617</v>
+      </c>
+      <c r="F36">
         <v>1.411107066608037</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>7.547163823075961</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>19.83826850368806</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>22.84265090712367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>4.536281812618217</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.163243649438078</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F37">
         <v>1.528699322158706</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>4.716977389422476</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.2307342476702346</v>
       </c>
-      <c r="H37" t="n">
-        <v>13.02243363596996</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>15.1684210669954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2.197992218485115</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.292492943820088</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.8464972146622459</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>2.14598743102544</v>
+      </c>
+      <c r="F38">
         <v>1.058330299956028</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>5.188675128364722</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>10.5839878052882</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>12.72997523631364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.683568507775832</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.3877478831460263</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="n">
+      <c r="F39">
         <v>0.5879612777533486</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>5.188675128364722</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="I39">
         <v>7.84795279703993</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.636802715893172</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.516997177528035</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.8583949724101758</v>
+      </c>
+      <c r="F40">
         <v>1.058330299956028</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>9.905652517787201</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>13.11778271116444</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>13.97617768357461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>3.600965974964977</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.2584985887640175</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>1.692994429324492</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>1.716789944820352</v>
+      </c>
+      <c r="F41">
         <v>2.116660599912056</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>18.8679095576899</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>26.53702915065544</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>28.2538190954758</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>7.996950411935206</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>3.809237465980107</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>6.008764806871233</v>
+      </c>
+      <c r="F42">
         <v>2.939806388766743</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>24.05658468605463</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H42" t="n">
-        <v>40.03954321436921</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>46.04830802124044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>26.60973558123468</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.6462464719100438</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>5.078983287973477</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>19.31388687922896</v>
+      </c>
+      <c r="F43">
         <v>7.643496610793533</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>36.7924236374953</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>76.77088558940704</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>96.084772468636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>48.1219998472592</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.7754957662920525</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>12.69745821993369</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>15.45110950338317</v>
+      </c>
+      <c r="F44">
         <v>9.407380444053578</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>33.49053946489957</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>1.384405486021409</v>
       </c>
-      <c r="H44" t="n">
-        <v>105.8772792284595</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>121.3283887318427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>52.65828165987742</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.292492943820088</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>11.85096100527145</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>10.30073966892211</v>
+      </c>
+      <c r="F45">
         <v>7.525904355242864</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>24.52828242499688</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H45" t="n">
-        <v>98.77885937988964</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>109.0795990488118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>39.65739151649741</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.938739415730131</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>12.27420961260257</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>9.442344696511936</v>
+      </c>
+      <c r="F46">
         <v>9.05460367740157</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>33.96223720384183</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H46" t="n">
-        <v>97.81011841675445</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>107.2524631132664</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>30.02363838866903</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.292492943820088</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>11.85096100527145</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>6.867159779281407</v>
+      </c>
+      <c r="F47">
         <v>11.17126427731363</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>33.49053946489957</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>1.153671238351173</v>
       </c>
-      <c r="H47" t="n">
-        <v>88.98256731832494</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>95.84972709760633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>29.1818541347811</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.9047450606740609</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>9.311469361284709</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>7.296357265486498</v>
+      </c>
+      <c r="F48">
         <v>10.70089525511094</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>24.05658468605463</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.9229369906809386</v>
       </c>
-      <c r="H48" t="n">
-        <v>75.07848548858638</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>82.37484275407289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>30.11716997243435</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.06798871011214</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>9.311469361284709</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>5.579567320666145</v>
+      </c>
+      <c r="F49">
         <v>8.81941916630023</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>19.33960729663216</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.4614684953404693</v>
       </c>
-      <c r="H49" t="n">
-        <v>70.11712300210405</v>
+      <c r="I49">
+        <v>75.69669032277019</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>34.74698336881789</v>
+        <v>66.78911174485354</v>
       </c>
       <c r="C2">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D2">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E2">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F2">
-        <v>12.34718683282032</v>
+        <v>23.73321540919355</v>
       </c>
       <c r="G2">
-        <v>26.88677111970811</v>
+        <v>51.68056005644495</v>
       </c>
       <c r="H2">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I2">
-        <v>88.63299682131016</v>
+        <v>170.3664190397638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>34.51315440940457</v>
+        <v>66.3396560803525</v>
       </c>
       <c r="C3">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D3">
-        <v>16.08344707858267</v>
+        <v>30.91488929476071</v>
       </c>
       <c r="E3">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F3">
-        <v>9.995341721806925</v>
+        <v>19.21260295029954</v>
       </c>
       <c r="G3">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="H3">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I3">
-        <v>90.84019793925617</v>
+        <v>174.6090032245582</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>36.57084925224171</v>
+        <v>70.29486592796158</v>
       </c>
       <c r="C4">
-        <v>2.584985887640175</v>
+        <v>4.968745328937104</v>
       </c>
       <c r="D4">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E4">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="F4">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="G4">
-        <v>21.22639825240114</v>
+        <v>40.80044214982495</v>
       </c>
       <c r="H4">
-        <v>1.615139733691643</v>
+        <v>3.104550027036032</v>
       </c>
       <c r="I4">
-        <v>90.18739731638624</v>
+        <v>173.3542187937724</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>48.02846826349389</v>
+        <v>92.31819348851224</v>
       </c>
       <c r="C5">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D5">
-        <v>20.73918175922503</v>
+        <v>39.86393619587565</v>
       </c>
       <c r="E5">
-        <v>9.013147210306851</v>
+        <v>17.32467218268562</v>
       </c>
       <c r="F5">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="G5">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="H5">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I5">
-        <v>101.0492666932626</v>
+        <v>194.2324228056125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>62.15173741205781</v>
+        <v>119.4653156243746</v>
       </c>
       <c r="C6">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D6">
-        <v>17.77644150790717</v>
+        <v>34.16908816789342</v>
       </c>
       <c r="E6">
-        <v>10.7299371551272</v>
+        <v>20.62460974129241</v>
       </c>
       <c r="F6">
-        <v>7.878681121894872</v>
+        <v>15.14405173729494</v>
       </c>
       <c r="G6">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="H6">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I6">
-        <v>113.0827831022907</v>
+        <v>217.3627148253613</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>52.70504745176011</v>
+        <v>101.3073067785329</v>
       </c>
       <c r="C7">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D7">
-        <v>10.58121518327808</v>
+        <v>20.33874295707942</v>
       </c>
       <c r="E7">
-        <v>13.30512207235773</v>
+        <v>25.57451607920258</v>
       </c>
       <c r="F7">
-        <v>5.526836010881476</v>
+        <v>10.62343927840092</v>
       </c>
       <c r="G7">
-        <v>12.26414121249844</v>
+        <v>23.57358879767664</v>
       </c>
       <c r="H7">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I7">
-        <v>96.18227964103707</v>
+        <v>184.8773159567239</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>37.31910192236428</v>
+        <v>71.73312405436494</v>
       </c>
       <c r="C8">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D8">
-        <v>7.195226324629091</v>
+        <v>13.830345210814</v>
       </c>
       <c r="E8">
-        <v>8.154752237896671</v>
+        <v>15.67470340338222</v>
       </c>
       <c r="F8">
-        <v>3.174990899868082</v>
+        <v>6.102826819506914</v>
       </c>
       <c r="G8">
-        <v>20.28300277451665</v>
+        <v>38.98708916538829</v>
       </c>
       <c r="H8">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I8">
-        <v>78.13953418719936</v>
+        <v>150.1963501442575</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>23.19583277380036</v>
+        <v>44.58600191850251</v>
       </c>
       <c r="C9">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D9">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E9">
-        <v>12.44672709994755</v>
+        <v>23.92454729989919</v>
       </c>
       <c r="F9">
-        <v>3.292583155418753</v>
+        <v>6.328857442451612</v>
       </c>
       <c r="G9">
-        <v>21.69809599134339</v>
+        <v>41.70711864204328</v>
       </c>
       <c r="H9">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I9">
-        <v>69.25794396643256</v>
+        <v>133.1245509773943</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>18.8466141287128</v>
+        <v>36.22612655878328</v>
       </c>
       <c r="C10">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D10">
-        <v>3.385988858648984</v>
+        <v>6.508397746265412</v>
       </c>
       <c r="E10">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="F10">
-        <v>1.999068344361385</v>
+        <v>3.842520590059909</v>
       </c>
       <c r="G10">
-        <v>13.20753669038294</v>
+        <v>25.3869417821133</v>
       </c>
       <c r="I10">
-        <v>42.29453014994891</v>
+        <v>81.29667172535088</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>12.39293484890543</v>
+        <v>23.82115021855475</v>
       </c>
       <c r="C11">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D11">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E11">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F11">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="G11">
-        <v>14.15093216826743</v>
+        <v>27.20029476654997</v>
       </c>
       <c r="I11">
-        <v>35.19203510958643</v>
+        <v>67.64457048010327</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>7.014868782399303</v>
+        <v>13.483669935031</v>
       </c>
       <c r="C12">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D12">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E12">
-        <v>3.433579889640703</v>
+        <v>6.599875117213567</v>
       </c>
       <c r="F12">
-        <v>0.7055535333040184</v>
+        <v>1.356183737668203</v>
       </c>
       <c r="G12">
-        <v>4.245279650480229</v>
+        <v>8.160088429964988</v>
       </c>
       <c r="H12">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I12">
-        <v>17.63975696759481</v>
+        <v>33.90635920118524</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>4.255687061322244</v>
+        <v>8.180093093918806</v>
       </c>
       <c r="C13">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="D13">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E13">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F13">
-        <v>0.7055535333040184</v>
+        <v>1.356183737668203</v>
       </c>
       <c r="G13">
-        <v>3.773581911537981</v>
+        <v>7.253411937746658</v>
       </c>
       <c r="I13">
-        <v>12.24430432937996</v>
+        <v>23.53545921994592</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>2.478586969781088</v>
+        <v>4.764230043710953</v>
       </c>
       <c r="C14">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D14">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E14">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F14">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="G14">
-        <v>7.075466084133715</v>
+        <v>13.60014738327498</v>
       </c>
       <c r="I14">
-        <v>14.37441488697661</v>
+        <v>27.62986334562569</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.169144797066551</v>
+        <v>2.247278322505166</v>
       </c>
       <c r="C15">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D15">
-        <v>1.269745821993369</v>
+        <v>2.44064915484953</v>
       </c>
       <c r="E15">
-        <v>0.4291974862050879</v>
+        <v>0.8249843896516958</v>
       </c>
       <c r="F15">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="G15">
-        <v>3.301884172595734</v>
+        <v>6.346735445528325</v>
       </c>
       <c r="I15">
-        <v>7.874549049726814</v>
+        <v>15.1361092512713</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.6547210863572686</v>
+        <v>1.258475860602893</v>
       </c>
       <c r="C16">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D16">
-        <v>0.423248607331123</v>
+        <v>0.8135497182831765</v>
       </c>
       <c r="F16">
-        <v>0.3527767666520092</v>
+        <v>0.6780918688341014</v>
       </c>
       <c r="G16">
-        <v>5.660372867306971</v>
+        <v>10.88011790661999</v>
       </c>
       <c r="I16">
-        <v>7.478867210793398</v>
+        <v>14.37554715368072</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>3.180073848021018</v>
+        <v>6.112597037214051</v>
       </c>
       <c r="D17">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E17">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F17">
-        <v>0.940738044405358</v>
+        <v>1.808244983557604</v>
       </c>
       <c r="G17">
-        <v>11.79244347355619</v>
+        <v>22.6669123054583</v>
       </c>
       <c r="I17">
-        <v>18.47654252546517</v>
+        <v>35.5147913214031</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>7.669589868756574</v>
+        <v>14.74214579563389</v>
       </c>
       <c r="C18">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="D18">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E18">
-        <v>5.150369834461056</v>
+        <v>9.899812675820355</v>
       </c>
       <c r="F18">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="G18">
-        <v>26.41507338076588</v>
+        <v>50.7738835642266</v>
       </c>
       <c r="I18">
-        <v>44.50242333515344</v>
+        <v>85.54058617116317</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>24.22468019521892</v>
+        <v>46.56360684230705</v>
       </c>
       <c r="C19">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="D19">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="E19">
-        <v>18.0262944206137</v>
+        <v>34.64934436537123</v>
       </c>
       <c r="F19">
-        <v>6.114797288634826</v>
+        <v>11.75359239312442</v>
       </c>
       <c r="G19">
-        <v>37.7358191153798</v>
+        <v>72.53411937746661</v>
       </c>
       <c r="H19">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I19">
-        <v>91.41402771931521</v>
+        <v>175.7119934005999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>48.91701830926447</v>
+        <v>94.02612501361612</v>
       </c>
       <c r="C20">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D20">
-        <v>13.96720404192706</v>
+        <v>26.84714070334483</v>
       </c>
       <c r="E20">
-        <v>15.02191201717808</v>
+        <v>28.87445363780936</v>
       </c>
       <c r="F20">
-        <v>10.1129339773576</v>
+        <v>19.43863357324424</v>
       </c>
       <c r="G20">
-        <v>27.35846885865036</v>
+        <v>52.58723654866327</v>
       </c>
       <c r="H20">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I20">
-        <v>117.537438456691</v>
+        <v>225.9252559556755</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>53.73389487317867</v>
+        <v>103.2849117023374</v>
       </c>
       <c r="C21">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D21">
-        <v>8.464972146622459</v>
+        <v>16.27099436566353</v>
       </c>
       <c r="E21">
-        <v>11.15913464133229</v>
+        <v>21.4495941309441</v>
       </c>
       <c r="F21">
-        <v>8.81941916630023</v>
+        <v>16.95229672085254</v>
       </c>
       <c r="G21">
-        <v>25.47167790288137</v>
+        <v>48.96053057978995</v>
       </c>
       <c r="H21">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I21">
-        <v>110.4552464545385</v>
+        <v>212.3121803108195</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>41.9956811106305</v>
+        <v>80.72223734438555</v>
       </c>
       <c r="C22">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D22">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="E22">
-        <v>11.15913464133229</v>
+        <v>21.4495941309441</v>
       </c>
       <c r="F22">
-        <v>10.34811848845894</v>
+        <v>19.89069481913365</v>
       </c>
       <c r="G22">
-        <v>32.07544624807284</v>
+        <v>61.65400147084659</v>
       </c>
       <c r="H22">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I22">
-        <v>109.4877577927912</v>
+        <v>210.452516475964</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>29.60274626172506</v>
+        <v>56.90108712583078</v>
       </c>
       <c r="C23">
-        <v>2.197238004494149</v>
+        <v>4.223433529596536</v>
       </c>
       <c r="D23">
-        <v>9.734717968615827</v>
+        <v>18.71164352051306</v>
       </c>
       <c r="E23">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F23">
-        <v>12.69996359947233</v>
+        <v>24.41130727802766</v>
       </c>
       <c r="G23">
-        <v>31.60374850913059</v>
+        <v>60.74732497862828</v>
       </c>
       <c r="H23">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I23">
-        <v>91.51479469151023</v>
+        <v>175.9056832094299</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>30.16393576431701</v>
+        <v>57.97978072063328</v>
       </c>
       <c r="C24">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D24">
-        <v>11.42771239794032</v>
+        <v>21.96584239364577</v>
       </c>
       <c r="E24">
-        <v>6.437962293076318</v>
+        <v>12.37476584477545</v>
       </c>
       <c r="F24">
-        <v>11.75922555506697</v>
+        <v>22.60306229447005</v>
       </c>
       <c r="G24">
-        <v>28.30186433653486</v>
+        <v>54.40058953309994</v>
       </c>
       <c r="H24">
-        <v>0.6922027430107043</v>
+        <v>1.3305214401583</v>
       </c>
       <c r="I24">
-        <v>89.55839885623824</v>
+        <v>172.1451858254639</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>28.38683567277586</v>
+        <v>54.56391767042543</v>
       </c>
       <c r="C25">
-        <v>1.680240826966114</v>
+        <v>3.229684463809117</v>
       </c>
       <c r="D25">
-        <v>7.618474931960215</v>
+        <v>14.64389492909718</v>
       </c>
       <c r="E25">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F25">
-        <v>7.408312099692194</v>
+        <v>14.23992924551613</v>
       </c>
       <c r="G25">
-        <v>20.75470051345889</v>
+        <v>39.89376565760662</v>
       </c>
       <c r="H25">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I25">
-        <v>71.88959986085989</v>
+        <v>138.1830033253654</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>32.82958590162874</v>
+        <v>63.10357529594508</v>
       </c>
       <c r="C26">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D26">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="E26">
-        <v>4.721172348255968</v>
+        <v>9.07482828616866</v>
       </c>
       <c r="F26">
-        <v>11.52404104396563</v>
+        <v>22.15100104858065</v>
       </c>
       <c r="G26">
-        <v>23.11318920817015</v>
+        <v>44.42714811869829</v>
       </c>
       <c r="H26">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I26">
-        <v>86.09736580631717</v>
+        <v>165.4925414600468</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>31.80073848021016</v>
+        <v>61.12597037214054</v>
       </c>
       <c r="C27">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D27">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E27">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F27">
-        <v>7.055535333040184</v>
+        <v>13.56183737668203</v>
       </c>
       <c r="G27">
-        <v>24.99998016393912</v>
+        <v>48.05385408757162</v>
       </c>
       <c r="H27">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I27">
-        <v>78.9551610509216</v>
+        <v>151.7641119601547</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>35.07434391199651</v>
+        <v>67.418349675155</v>
       </c>
       <c r="C28">
-        <v>1.421742238202096</v>
+        <v>2.732809930915406</v>
       </c>
       <c r="D28">
-        <v>15.66019847125155</v>
+        <v>30.10133957647753</v>
       </c>
       <c r="E28">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="F28">
-        <v>10.46571074400961</v>
+        <v>20.11672544207834</v>
       </c>
       <c r="G28">
-        <v>22.16979373028564</v>
+        <v>42.61379513426163</v>
       </c>
       <c r="H28">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I28">
-        <v>93.01108335191283</v>
+        <v>178.7817829698445</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>50.31999206574437</v>
+        <v>96.72285900062236</v>
       </c>
       <c r="C29">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D29">
-        <v>17.35319290057605</v>
+        <v>33.35553844961024</v>
       </c>
       <c r="E29">
-        <v>8.58394972410176</v>
+        <v>16.49968779303393</v>
       </c>
       <c r="F29">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="G29">
-        <v>15.09432764615192</v>
+        <v>29.01364775098663</v>
       </c>
       <c r="H29">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I29">
-        <v>105.227389384823</v>
+        <v>202.2634251049591</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>57.05426609684766</v>
+        <v>109.6671821382521</v>
       </c>
       <c r="C30">
-        <v>1.809490121348122</v>
+        <v>3.478121730255972</v>
       </c>
       <c r="D30">
-        <v>16.92994429324492</v>
+        <v>32.54198873132706</v>
       </c>
       <c r="E30">
-        <v>9.871542182717025</v>
+        <v>18.97464096198901</v>
       </c>
       <c r="F30">
-        <v>7.290719844141523</v>
+        <v>14.01389862257143</v>
       </c>
       <c r="G30">
-        <v>10.84904799567169</v>
+        <v>20.85355932102164</v>
       </c>
       <c r="H30">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I30">
-        <v>104.9586817723221</v>
+        <v>201.7469272390144</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>53.50006591376536</v>
+        <v>102.8354560378365</v>
       </c>
       <c r="C31">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D31">
-        <v>18.19969011523829</v>
+        <v>34.98263788617659</v>
       </c>
       <c r="E31">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="F31">
-        <v>5.644428266432147</v>
+        <v>10.84946990134562</v>
       </c>
       <c r="G31">
-        <v>17.45281634086316</v>
+        <v>33.5470302120783</v>
       </c>
       <c r="H31">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I31">
-        <v>110.2852816340223</v>
+        <v>211.9854814641986</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>34.04549649057795</v>
+        <v>65.44074475135045</v>
       </c>
       <c r="C32">
-        <v>1.03399435505607</v>
+        <v>1.98749813157484</v>
       </c>
       <c r="D32">
-        <v>17.35319290057605</v>
+        <v>33.35553844961024</v>
       </c>
       <c r="E32">
-        <v>11.58833212753738</v>
+        <v>22.2745785205958</v>
       </c>
       <c r="F32">
-        <v>4.938874733128129</v>
+        <v>9.49328616367742</v>
       </c>
       <c r="G32">
-        <v>19.8113050355744</v>
+        <v>38.08041267316995</v>
       </c>
       <c r="I32">
-        <v>88.77119564245</v>
+        <v>170.6320586899787</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>21.51226426602452</v>
+        <v>41.34992113409506</v>
       </c>
       <c r="C33">
-        <v>1.550991532584105</v>
+        <v>2.981247197362261</v>
       </c>
       <c r="D33">
-        <v>8.888220753953584</v>
+        <v>17.08454408394671</v>
       </c>
       <c r="E33">
-        <v>13.73431955856281</v>
+        <v>26.39950046885427</v>
       </c>
       <c r="F33">
-        <v>2.704621877665404</v>
+        <v>5.198704327728112</v>
       </c>
       <c r="G33">
-        <v>16.98111860192092</v>
+        <v>32.64035371985995</v>
       </c>
       <c r="I33">
-        <v>65.37153659071134</v>
+        <v>125.6542709318464</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>18.19189304235553</v>
+        <v>34.96765069818039</v>
       </c>
       <c r="C34">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D34">
-        <v>4.23248607331123</v>
+        <v>8.135497182831765</v>
       </c>
       <c r="E34">
-        <v>4.29197486205088</v>
+        <v>8.249843896516964</v>
       </c>
       <c r="F34">
-        <v>2.351845111013394</v>
+        <v>4.520612458894011</v>
       </c>
       <c r="G34">
-        <v>14.62262990720968</v>
+        <v>28.1069712587683</v>
       </c>
       <c r="H34">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I34">
-        <v>44.826308304285</v>
+        <v>86.16314350703884</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>14.40386389985991</v>
+        <v>27.68646893326365</v>
       </c>
       <c r="C35">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D35">
-        <v>4.655734680642355</v>
+        <v>8.949046901114942</v>
       </c>
       <c r="E35">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="F35">
-        <v>3.057398644317413</v>
+        <v>5.876796196562212</v>
       </c>
       <c r="G35">
-        <v>15.56602538509417</v>
+        <v>29.92032424320497</v>
       </c>
       <c r="H35">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I35">
-        <v>45.0857653138934</v>
+        <v>86.66186027401064</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>7.43576090934326</v>
+        <v>14.29269013113286</v>
       </c>
       <c r="C36">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D36">
-        <v>2.539491643986739</v>
+        <v>4.88129830969906</v>
       </c>
       <c r="E36">
-        <v>3.004382403435617</v>
+        <v>5.774890727561873</v>
       </c>
       <c r="F36">
-        <v>1.411107066608037</v>
+        <v>2.712367475336406</v>
       </c>
       <c r="G36">
-        <v>7.547163823075961</v>
+        <v>14.50682387549332</v>
       </c>
       <c r="I36">
-        <v>22.84265090712367</v>
+        <v>43.90713138435151</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>4.536281812618217</v>
+        <v>8.719439891320045</v>
       </c>
       <c r="C37">
-        <v>1.163243649438078</v>
+        <v>2.235935398021696</v>
       </c>
       <c r="D37">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E37">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F37">
-        <v>1.528699322158706</v>
+        <v>2.938398098281106</v>
       </c>
       <c r="G37">
-        <v>4.716977389422476</v>
+        <v>9.066764922183326</v>
       </c>
       <c r="H37">
-        <v>0.2307342476702346</v>
+        <v>0.4435071467194331</v>
       </c>
       <c r="I37">
-        <v>15.1684210669954</v>
+        <v>29.15606684135044</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>2.197992218485115</v>
+        <v>4.224883246309711</v>
       </c>
       <c r="C38">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D38">
-        <v>0.8464972146622459</v>
+        <v>1.627099436566353</v>
       </c>
       <c r="E38">
-        <v>2.14598743102544</v>
+        <v>4.124921948258482</v>
       </c>
       <c r="F38">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="G38">
-        <v>5.188675128364722</v>
+        <v>9.973441414401655</v>
       </c>
       <c r="I38">
-        <v>12.72997523631364</v>
+        <v>24.46899431650706</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.683568507775832</v>
+        <v>3.236080784407438</v>
       </c>
       <c r="C39">
-        <v>0.3877478831460263</v>
+        <v>0.7453117993405654</v>
       </c>
       <c r="F39">
-        <v>0.5879612777533486</v>
+        <v>1.130153114723503</v>
       </c>
       <c r="G39">
-        <v>5.188675128364722</v>
+        <v>9.973441414401655</v>
       </c>
       <c r="I39">
-        <v>7.84795279703993</v>
+        <v>15.08498711287316</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.636802715893172</v>
+        <v>3.146189651507232</v>
       </c>
       <c r="C40">
-        <v>0.516997177528035</v>
+        <v>0.9937490657874202</v>
       </c>
       <c r="E40">
-        <v>0.8583949724101758</v>
+        <v>1.649968779303392</v>
       </c>
       <c r="F40">
-        <v>1.058330299956028</v>
+        <v>2.034275606502304</v>
       </c>
       <c r="G40">
-        <v>9.905652517787201</v>
+        <v>19.04020633658498</v>
       </c>
       <c r="I40">
-        <v>13.97617768357461</v>
+        <v>26.86438943968533</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>3.600965974964977</v>
+        <v>6.921617233315914</v>
       </c>
       <c r="C41">
-        <v>0.2584985887640175</v>
+        <v>0.4968745328937101</v>
       </c>
       <c r="D41">
-        <v>1.692994429324492</v>
+        <v>3.254198873132706</v>
       </c>
       <c r="E41">
-        <v>1.716789944820352</v>
+        <v>3.299937558606783</v>
       </c>
       <c r="F41">
-        <v>2.116660599912056</v>
+        <v>4.068551213004609</v>
       </c>
       <c r="G41">
-        <v>18.8679095576899</v>
+        <v>36.2670596887333</v>
       </c>
       <c r="I41">
-        <v>28.2538190954758</v>
+        <v>54.30823909968703</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>7.996950411935206</v>
+        <v>15.37138372593534</v>
       </c>
       <c r="C42">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D42">
-        <v>3.809237465980107</v>
+        <v>7.32194746454859</v>
       </c>
       <c r="E42">
-        <v>6.008764806871233</v>
+        <v>11.54978145512375</v>
       </c>
       <c r="F42">
-        <v>2.939806388766743</v>
+        <v>5.650765573617513</v>
       </c>
       <c r="G42">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="H42">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I42">
-        <v>46.04830802124044</v>
+        <v>88.51201721448014</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>26.60973558123468</v>
+        <v>51.14805462021758</v>
       </c>
       <c r="C43">
-        <v>0.6462464719100438</v>
+        <v>1.242186332234276</v>
       </c>
       <c r="D43">
-        <v>5.078983287973477</v>
+        <v>9.762596619398121</v>
       </c>
       <c r="E43">
-        <v>19.31388687922896</v>
+        <v>37.12429753432632</v>
       </c>
       <c r="F43">
-        <v>7.643496610793533</v>
+        <v>14.69199049140553</v>
       </c>
       <c r="G43">
-        <v>36.7924236374953</v>
+        <v>70.72076639302992</v>
       </c>
       <c r="I43">
-        <v>96.084772468636</v>
+        <v>184.6898919906118</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>48.1219998472592</v>
+        <v>92.49797575431268</v>
       </c>
       <c r="C44">
-        <v>0.7754957662920525</v>
+        <v>1.490623598681131</v>
       </c>
       <c r="D44">
-        <v>12.69745821993369</v>
+        <v>24.4064915484953</v>
       </c>
       <c r="E44">
-        <v>15.45110950338317</v>
+        <v>29.69943802746107</v>
       </c>
       <c r="F44">
-        <v>9.407380444053578</v>
+        <v>18.08244983557604</v>
       </c>
       <c r="G44">
-        <v>33.49053946489957</v>
+        <v>64.37403094750158</v>
       </c>
       <c r="H44">
-        <v>1.384405486021409</v>
+        <v>2.661042880316599</v>
       </c>
       <c r="I44">
-        <v>121.3283887318427</v>
+        <v>233.2120525923444</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>52.65828165987742</v>
+        <v>101.2174156456327</v>
       </c>
       <c r="C45">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D45">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="E45">
-        <v>10.30073966892211</v>
+        <v>19.79962535164071</v>
       </c>
       <c r="F45">
-        <v>7.525904355242864</v>
+        <v>14.46595986846083</v>
       </c>
       <c r="G45">
-        <v>24.52828242499688</v>
+        <v>47.14717759535328</v>
       </c>
       <c r="H45">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I45">
-        <v>109.0795990488118</v>
+        <v>209.6679718243627</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>39.65739151649741</v>
+        <v>76.22768069937526</v>
       </c>
       <c r="C46">
-        <v>1.938739415730131</v>
+        <v>3.726558996702827</v>
       </c>
       <c r="D46">
-        <v>12.27420961260257</v>
+        <v>23.59294183021213</v>
       </c>
       <c r="E46">
-        <v>9.442344696511936</v>
+        <v>18.14965657233732</v>
       </c>
       <c r="F46">
-        <v>9.05460367740157</v>
+        <v>17.40435796674194</v>
       </c>
       <c r="G46">
-        <v>33.96223720384183</v>
+        <v>65.2807074397199</v>
       </c>
       <c r="H46">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I46">
-        <v>107.2524631132664</v>
+        <v>206.1559320919671</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>30.02363838866903</v>
+        <v>57.71010732193264</v>
       </c>
       <c r="C47">
-        <v>1.292492943820088</v>
+        <v>2.484372664468552</v>
       </c>
       <c r="D47">
-        <v>11.85096100527145</v>
+        <v>22.77939211192894</v>
       </c>
       <c r="E47">
-        <v>6.867159779281407</v>
+        <v>13.19975023442713</v>
       </c>
       <c r="F47">
-        <v>11.17126427731363</v>
+        <v>21.47290917974655</v>
       </c>
       <c r="G47">
-        <v>33.49053946489957</v>
+        <v>64.37403094750158</v>
       </c>
       <c r="H47">
-        <v>1.153671238351173</v>
+        <v>2.217535733597166</v>
       </c>
       <c r="I47">
-        <v>95.84972709760633</v>
+        <v>184.2380981936026</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>29.1818541347811</v>
+        <v>56.09206692972894</v>
       </c>
       <c r="C48">
-        <v>0.9047450606740609</v>
+        <v>1.739060865127986</v>
       </c>
       <c r="D48">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E48">
-        <v>7.296357265486498</v>
+        <v>14.02473462407883</v>
       </c>
       <c r="F48">
-        <v>10.70089525511094</v>
+        <v>20.56878668796775</v>
       </c>
       <c r="G48">
-        <v>24.05658468605463</v>
+        <v>46.24050110313495</v>
       </c>
       <c r="H48">
-        <v>0.9229369906809386</v>
+        <v>1.774028586877733</v>
       </c>
       <c r="I48">
-        <v>82.37484275407289</v>
+        <v>158.3372725991461</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>30.11716997243435</v>
+        <v>57.88988958773307</v>
       </c>
       <c r="C49">
-        <v>2.06798871011214</v>
+        <v>3.974996263149681</v>
       </c>
       <c r="D49">
-        <v>9.311469361284709</v>
+        <v>17.89809380222988</v>
       </c>
       <c r="E49">
-        <v>5.579567320666145</v>
+        <v>10.72479706547205</v>
       </c>
       <c r="F49">
-        <v>8.81941916630023</v>
+        <v>16.95229672085254</v>
       </c>
       <c r="G49">
-        <v>19.33960729663216</v>
+        <v>37.1737361809516</v>
       </c>
       <c r="H49">
-        <v>0.4614684953404693</v>
+        <v>0.8870142934388663</v>
       </c>
       <c r="I49">
-        <v>75.69669032277019</v>
+        <v>145.5008239138277</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>26.84048415914674</v>
+        <v>15.64654580440183</v>
       </c>
       <c r="C2">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D2">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E2">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F2">
-        <v>9.537647313974981</v>
+        <v>5.55993083729394</v>
       </c>
       <c r="G2">
-        <v>20.76882320025357</v>
+        <v>12.10709693534162</v>
       </c>
       <c r="H2">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I2">
-        <v>68.46500952065274</v>
+        <v>39.91138539498518</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>26.65986178930054</v>
+        <v>15.54125276399535</v>
       </c>
       <c r="C3">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D3">
-        <v>12.42374055770758</v>
+        <v>7.242366588679145</v>
       </c>
       <c r="E3">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F3">
-        <v>7.720952587503555</v>
+        <v>4.500896392095095</v>
       </c>
       <c r="G3">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="H3">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I3">
-        <v>70.16997325846734</v>
+        <v>40.90528673671894</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>28.24933864394717</v>
+        <v>16.46783151957231</v>
       </c>
       <c r="C4">
-        <v>1.996785506021453</v>
+        <v>1.164017597308629</v>
       </c>
       <c r="D4">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E4">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="F4">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="G4">
-        <v>16.39643936862124</v>
+        <v>9.558234422638119</v>
       </c>
       <c r="H4">
-        <v>1.24762290806121</v>
+        <v>0.7272964549318058</v>
       </c>
       <c r="I4">
-        <v>69.66571409469356</v>
+        <v>40.61133100713919</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>37.09983476641145</v>
+        <v>21.62719049948948</v>
       </c>
       <c r="C5">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D5">
-        <v>16.02008650862293</v>
+        <v>9.338841127507319</v>
       </c>
       <c r="E5">
-        <v>6.962251437901697</v>
+        <v>4.058614791707037</v>
       </c>
       <c r="F5">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="G5">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="H5">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I5">
-        <v>78.05602037982558</v>
+        <v>45.50242428343321</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>48.00942590512253</v>
+        <v>27.98689014004042</v>
       </c>
       <c r="C6">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D6">
-        <v>13.7315027216768</v>
+        <v>8.004720966434846</v>
       </c>
       <c r="E6">
-        <v>8.288394568930594</v>
+        <v>4.83168427584171</v>
       </c>
       <c r="F6">
-        <v>6.085927333679273</v>
+        <v>3.547765391416134</v>
       </c>
       <c r="G6">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="H6">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I6">
-        <v>87.35137137841623</v>
+        <v>50.92110951672016</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>40.71228216333566</v>
+        <v>23.73305130761891</v>
       </c>
       <c r="C7">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D7">
-        <v>8.173513524807616</v>
+        <v>4.764714860973121</v>
       </c>
       <c r="E7">
-        <v>10.27760926547393</v>
+        <v>5.99128850204372</v>
       </c>
       <c r="F7">
-        <v>4.269232607207848</v>
+        <v>2.488730946217288</v>
       </c>
       <c r="G7">
-        <v>9.473498301870054</v>
+        <v>5.522535444190913</v>
       </c>
       <c r="H7">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I7">
-        <v>74.29649145924419</v>
+        <v>43.31082292817955</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>28.82733022745505</v>
+        <v>16.80476924887302</v>
       </c>
       <c r="C8">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D8">
-        <v>5.557989196869178</v>
+        <v>3.240006105461723</v>
       </c>
       <c r="E8">
-        <v>6.299179872387251</v>
+        <v>3.672080049639699</v>
       </c>
       <c r="F8">
-        <v>2.452537880736423</v>
+        <v>1.429696501018442</v>
       </c>
       <c r="G8">
-        <v>15.66770873001585</v>
+        <v>9.133424003854202</v>
       </c>
       <c r="H8">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I8">
-        <v>60.35928089909412</v>
+        <v>35.18618545435564</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>17.91773908874399</v>
+        <v>10.44506960832208</v>
       </c>
       <c r="C9">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D9">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E9">
-        <v>9.614537699959488</v>
+        <v>5.604753759976382</v>
       </c>
       <c r="F9">
-        <v>2.543372617059995</v>
+        <v>1.482648223278385</v>
       </c>
       <c r="G9">
-        <v>16.76080468792394</v>
+        <v>9.770639632030079</v>
       </c>
       <c r="H9">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I9">
-        <v>53.49865132736407</v>
+        <v>31.18681069626185</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>14.5581630096045</v>
+        <v>8.48661905676169</v>
       </c>
       <c r="C10">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D10">
-        <v>2.615524327938437</v>
+        <v>1.524708755511399</v>
       </c>
       <c r="E10">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="F10">
-        <v>1.544190517500711</v>
+        <v>0.9001792784190192</v>
       </c>
       <c r="G10">
-        <v>10.20222894047544</v>
+        <v>5.947345862974831</v>
       </c>
       <c r="I10">
-        <v>32.67062508588867</v>
+        <v>19.04520160045603</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>9.57298560184911</v>
+        <v>5.580531141543046</v>
       </c>
       <c r="C11">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D11">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E11">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F11">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="G11">
-        <v>10.93095957908083</v>
+        <v>6.372156281758746</v>
       </c>
       <c r="I11">
-        <v>27.18426664153684</v>
+        <v>15.84695233677186</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>5.418671095386287</v>
+        <v>3.158791212194177</v>
       </c>
       <c r="C12">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D12">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E12">
-        <v>2.65228626205779</v>
+        <v>1.546138968269347</v>
       </c>
       <c r="F12">
-        <v>0.5450084179414274</v>
+        <v>0.3177103335596538</v>
       </c>
       <c r="G12">
-        <v>3.279287873724248</v>
+        <v>1.911646884527624</v>
       </c>
       <c r="H12">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I12">
-        <v>13.62592005281276</v>
+        <v>7.943171999779222</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>3.287327131201015</v>
+        <v>1.916333335397802</v>
       </c>
       <c r="C13">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="D13">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E13">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F13">
-        <v>0.5450084179414274</v>
+        <v>0.3177103335596538</v>
       </c>
       <c r="G13">
-        <v>2.914922554421553</v>
+        <v>1.699241675135666</v>
       </c>
       <c r="I13">
-        <v>9.458175200539014</v>
+        <v>5.513602907601039</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.914597120369823</v>
+        <v>1.116106228308609</v>
       </c>
       <c r="C14">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D14">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E14">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F14">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="G14">
-        <v>5.465479789540416</v>
+        <v>3.186078140879373</v>
       </c>
       <c r="I14">
-        <v>11.10358994263462</v>
+        <v>6.4727904161715</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.9031118492310479</v>
+        <v>0.526465202032363</v>
       </c>
       <c r="C15">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D15">
-        <v>0.9808216229769142</v>
+        <v>0.5717657833167746</v>
       </c>
       <c r="E15">
-        <v>0.3315357827572237</v>
+        <v>0.1932673710336684</v>
       </c>
       <c r="F15">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="G15">
-        <v>2.55055723511886</v>
+        <v>1.486836465743708</v>
       </c>
       <c r="I15">
-        <v>6.08273549350155</v>
+        <v>3.545904721793152</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.505742635569387</v>
+        <v>0.2948205131381231</v>
       </c>
       <c r="C16">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D16">
-        <v>0.3269405409923046</v>
+        <v>0.1905885944389249</v>
       </c>
       <c r="F16">
-        <v>0.2725042089707137</v>
+        <v>0.1588551667798269</v>
       </c>
       <c r="G16">
-        <v>4.372383831632331</v>
+        <v>2.548862512703499</v>
       </c>
       <c r="I16">
-        <v>5.777089043067955</v>
+        <v>3.367729426656668</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>2.45646422990845</v>
+        <v>1.431985349528026</v>
       </c>
       <c r="D17">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E17">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F17">
-        <v>0.7266778905885698</v>
+        <v>0.4236137780795383</v>
       </c>
       <c r="G17">
-        <v>9.109132982567358</v>
+        <v>5.310130234798956</v>
       </c>
       <c r="I17">
-        <v>14.27229931607788</v>
+        <v>8.319976035419042</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>5.924413730955678</v>
+        <v>3.453611725332301</v>
       </c>
       <c r="C18">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="D18">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E18">
-        <v>3.978429393086684</v>
+        <v>2.319208452404021</v>
       </c>
       <c r="F18">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="G18">
-        <v>20.40445788095088</v>
+        <v>11.89469172594966</v>
       </c>
       <c r="I18">
-        <v>34.3761234145796</v>
+        <v>20.03941457966191</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>18.71247751606732</v>
+        <v>10.90835898611056</v>
       </c>
       <c r="C19">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="D19">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="E19">
-        <v>13.92450287580339</v>
+        <v>8.117229583414074</v>
       </c>
       <c r="F19">
-        <v>4.723406288825704</v>
+        <v>2.753489557517</v>
       </c>
       <c r="G19">
-        <v>29.14922554421555</v>
+        <v>16.99241675135665</v>
       </c>
       <c r="H19">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I19">
-        <v>70.61323099276447</v>
+        <v>41.16368194306889</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>37.78619977182705</v>
+        <v>22.02730405303407</v>
       </c>
       <c r="C20">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D20">
-        <v>10.78903785274605</v>
+        <v>6.289423616484522</v>
       </c>
       <c r="E20">
-        <v>11.60375239650283</v>
+        <v>6.764357986178394</v>
       </c>
       <c r="F20">
-        <v>7.811787323827126</v>
+        <v>4.553848114355038</v>
       </c>
       <c r="G20">
-        <v>21.13318851955627</v>
+        <v>12.31950214473358</v>
       </c>
       <c r="H20">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I20">
-        <v>90.79239258031824</v>
+        <v>52.92703815534831</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>41.50702059065897</v>
+        <v>24.19634068540738</v>
       </c>
       <c r="C21">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D21">
-        <v>6.538810819846093</v>
+        <v>3.811771888778497</v>
       </c>
       <c r="E21">
-        <v>8.619930351687817</v>
+        <v>5.024951646875379</v>
       </c>
       <c r="F21">
-        <v>6.812605224267843</v>
+        <v>3.971379169495671</v>
       </c>
       <c r="G21">
-        <v>19.67572724234549</v>
+        <v>11.46988130716574</v>
       </c>
       <c r="H21">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I21">
-        <v>85.32171732117047</v>
+        <v>49.73793133761254</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>32.43977762437923</v>
+        <v>18.91063005700248</v>
       </c>
       <c r="C22">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D22">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="E22">
-        <v>8.619930351687817</v>
+        <v>5.024951646875379</v>
       </c>
       <c r="F22">
-        <v>7.99345679647427</v>
+        <v>4.659751558874922</v>
       </c>
       <c r="G22">
-        <v>24.7768417125832</v>
+        <v>14.44355423865316</v>
       </c>
       <c r="H22">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I22">
-        <v>84.57437578006028</v>
+        <v>49.30227177256229</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>22.86679202253013</v>
+        <v>13.33009891545942</v>
       </c>
       <c r="C23">
-        <v>1.697267680118234</v>
+        <v>0.9894149577123353</v>
       </c>
       <c r="D23">
-        <v>7.51963244282301</v>
+        <v>4.383537672095271</v>
       </c>
       <c r="E23">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F23">
-        <v>9.810151522945693</v>
+        <v>5.718786004073768</v>
       </c>
       <c r="G23">
-        <v>24.41247639328052</v>
+        <v>14.2311490292612</v>
       </c>
       <c r="H23">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I23">
-        <v>70.6910689533223</v>
+        <v>41.2090572503088</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>23.30028571016102</v>
+        <v>13.58280221243497</v>
       </c>
       <c r="C24">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D24">
-        <v>8.827394606792224</v>
+        <v>5.145892049850972</v>
       </c>
       <c r="E24">
-        <v>4.973036741358356</v>
+        <v>2.899010565505026</v>
       </c>
       <c r="F24">
-        <v>9.083473632357123</v>
+        <v>5.29517222599423</v>
       </c>
       <c r="G24">
-        <v>21.86191915816167</v>
+        <v>12.74431256351749</v>
       </c>
       <c r="H24">
-        <v>0.5346955320262325</v>
+        <v>0.3116984806850596</v>
       </c>
       <c r="I24">
-        <v>69.17984103266306</v>
+        <v>40.32809337718034</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>21.92755569932984</v>
+        <v>12.78257510534577</v>
       </c>
       <c r="C25">
-        <v>1.297910578913944</v>
+        <v>0.7566114382506091</v>
       </c>
       <c r="D25">
-        <v>5.884929737861482</v>
+        <v>3.430594699900648</v>
       </c>
       <c r="E25">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F25">
-        <v>5.722588388384987</v>
+        <v>3.335958502376365</v>
       </c>
       <c r="G25">
-        <v>16.03207404931855</v>
+        <v>9.34582921324616</v>
       </c>
       <c r="H25">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I25">
-        <v>55.53148731767021</v>
+        <v>32.37184376968062</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>25.35938072640782</v>
+        <v>14.78314287306875</v>
       </c>
       <c r="C26">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D26">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="E26">
-        <v>3.64689361032946</v>
+        <v>2.125941081370352</v>
       </c>
       <c r="F26">
-        <v>8.901804159709979</v>
+        <v>5.189268781474344</v>
       </c>
       <c r="G26">
-        <v>17.85390064583202</v>
+        <v>10.40785526020595</v>
       </c>
       <c r="H26">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I26">
-        <v>66.50634843721504</v>
+        <v>38.76959226727575</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>24.56464229908451</v>
+        <v>14.31985349528027</v>
       </c>
       <c r="C27">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D27">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E27">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F27">
-        <v>5.450084179414276</v>
+        <v>3.177103335596539</v>
       </c>
       <c r="G27">
-        <v>19.3113619230428</v>
+        <v>11.25747609777379</v>
       </c>
       <c r="H27">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I27">
-        <v>60.9893160213706</v>
+        <v>35.55346174269045</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>27.09335547693144</v>
+        <v>15.79395606097088</v>
       </c>
       <c r="C28">
-        <v>1.098232028311799</v>
+        <v>0.6402096785197463</v>
       </c>
       <c r="D28">
-        <v>12.09680001671527</v>
+        <v>7.05177799424022</v>
       </c>
       <c r="E28">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="F28">
-        <v>8.08429153279784</v>
+        <v>4.712703281134864</v>
       </c>
       <c r="G28">
-        <v>17.12517000722663</v>
+        <v>9.983044841422036</v>
       </c>
       <c r="H28">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I28">
-        <v>71.84688474489077</v>
+        <v>41.88283513810686</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>38.86993399090428</v>
+        <v>22.65906229547289</v>
       </c>
       <c r="C29">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D29">
-        <v>13.40456218068449</v>
+        <v>7.814132371995921</v>
       </c>
       <c r="E29">
-        <v>6.630715655144473</v>
+        <v>3.865347420673368</v>
       </c>
       <c r="F29">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="G29">
-        <v>11.65969021768621</v>
+        <v>6.796966700542666</v>
       </c>
       <c r="H29">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I29">
-        <v>81.28343251881532</v>
+        <v>47.38383042957298</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>44.07185824247514</v>
+        <v>25.69150185917932</v>
       </c>
       <c r="C30">
-        <v>1.397749854215017</v>
+        <v>0.8148123181160407</v>
       </c>
       <c r="D30">
-        <v>13.07762163969219</v>
+        <v>7.623543777556994</v>
       </c>
       <c r="E30">
-        <v>7.625323003416145</v>
+        <v>4.445149533774374</v>
       </c>
       <c r="F30">
-        <v>5.631753652061417</v>
+        <v>3.283006780116423</v>
       </c>
       <c r="G30">
-        <v>8.380402343961968</v>
+        <v>4.88531981601504</v>
       </c>
       <c r="H30">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I30">
-        <v>81.0758679558656</v>
+        <v>47.26283155256663</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>41.32639822081276</v>
+        <v>24.09104764500093</v>
       </c>
       <c r="C31">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D31">
-        <v>14.0584432626691</v>
+        <v>8.195309560873769</v>
       </c>
       <c r="E31">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="F31">
-        <v>4.360067343531419</v>
+        <v>2.541682668477231</v>
       </c>
       <c r="G31">
-        <v>13.48151681419969</v>
+        <v>7.858992747502455</v>
       </c>
       <c r="H31">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I31">
-        <v>85.19042713047234</v>
+        <v>49.66139628070945</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>26.29861704960812</v>
+        <v>15.33066668318241</v>
       </c>
       <c r="C32">
-        <v>0.7987142024085809</v>
+        <v>0.4656070389234518</v>
       </c>
       <c r="D32">
-        <v>13.40456218068449</v>
+        <v>7.814132371995921</v>
       </c>
       <c r="E32">
-        <v>8.95146613444504</v>
+        <v>5.218219017909045</v>
       </c>
       <c r="F32">
-        <v>3.815058925589992</v>
+        <v>2.223972334917576</v>
       </c>
       <c r="G32">
-        <v>15.30334341071316</v>
+        <v>8.921018794462247</v>
       </c>
       <c r="I32">
-        <v>68.57176190344939</v>
+        <v>39.97361624139066</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>16.61725802585128</v>
+        <v>9.686959717395476</v>
       </c>
       <c r="C33">
-        <v>1.198071303612871</v>
+        <v>0.6984105583851776</v>
       </c>
       <c r="D33">
-        <v>6.865751360838398</v>
+        <v>4.002360483217423</v>
       </c>
       <c r="E33">
-        <v>10.60914504823116</v>
+        <v>6.184555873077388</v>
       </c>
       <c r="F33">
-        <v>2.089198935442139</v>
+        <v>1.217889611978672</v>
       </c>
       <c r="G33">
-        <v>13.11715149489699</v>
+        <v>7.646587538110498</v>
       </c>
       <c r="I33">
-        <v>50.49657616887284</v>
+        <v>29.43676378216464</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>14.05242037403511</v>
+        <v>8.191798543623568</v>
       </c>
       <c r="C34">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D34">
-        <v>3.269405409923047</v>
+        <v>1.905885944389248</v>
       </c>
       <c r="E34">
-        <v>3.315357827572237</v>
+        <v>1.932673710336684</v>
       </c>
       <c r="F34">
-        <v>1.816694726471425</v>
+        <v>1.059034445198846</v>
       </c>
       <c r="G34">
-        <v>11.29532489838352</v>
+        <v>6.584561491150704</v>
       </c>
       <c r="H34">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I34">
-        <v>34.62631000750159</v>
+        <v>20.18525978731876</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>11.12633798252651</v>
+        <v>6.486051289038711</v>
       </c>
       <c r="C35">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D35">
-        <v>3.59634595091535</v>
+        <v>2.096474538828173</v>
       </c>
       <c r="E35">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="F35">
-        <v>2.361703144412852</v>
+        <v>1.3767447787585</v>
       </c>
       <c r="G35">
-        <v>12.02405553698891</v>
+        <v>7.009371909934623</v>
       </c>
       <c r="H35">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I35">
-        <v>34.82672889516316</v>
+        <v>20.30209312338194</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>5.743791361109465</v>
+        <v>3.348318684925828</v>
       </c>
       <c r="C36">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D36">
-        <v>1.961643245953828</v>
+        <v>1.143531566633549</v>
       </c>
       <c r="E36">
-        <v>2.320750479300565</v>
+        <v>1.352871597235679</v>
       </c>
       <c r="F36">
-        <v>1.090016835882855</v>
+        <v>0.6354206671193077</v>
       </c>
       <c r="G36">
-        <v>5.829845108843107</v>
+        <v>3.398483350271333</v>
       </c>
       <c r="I36">
-        <v>17.64492195819733</v>
+        <v>10.28603202524372</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>3.504073975016468</v>
+        <v>2.042684983885568</v>
       </c>
       <c r="C37">
-        <v>0.8985534777096535</v>
+        <v>0.5238079187888832</v>
       </c>
       <c r="D37">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E37">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F37">
-        <v>1.180851572206426</v>
+        <v>0.6883723893792499</v>
       </c>
       <c r="G37">
-        <v>3.643653193026943</v>
+        <v>2.124052093919582</v>
       </c>
       <c r="H37">
-        <v>0.1782318440087442</v>
+        <v>0.1038994935616865</v>
       </c>
       <c r="I37">
-        <v>11.71692405773896</v>
+        <v>6.830330923581161</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>1.697850276554371</v>
+        <v>0.9897545798208428</v>
       </c>
       <c r="C38">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D38">
-        <v>0.6538810819846093</v>
+        <v>0.3811771888778497</v>
       </c>
       <c r="E38">
-        <v>1.657678913786118</v>
+        <v>0.966336855168342</v>
       </c>
       <c r="F38">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="G38">
-        <v>4.008018512329637</v>
+        <v>2.33645730331154</v>
       </c>
       <c r="I38">
-        <v>9.833334164577604</v>
+        <v>5.73230022617237</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.300481062892709</v>
+        <v>0.7581098909266024</v>
       </c>
       <c r="C39">
-        <v>0.2995178259032178</v>
+        <v>0.1746026395962944</v>
       </c>
       <c r="F39">
-        <v>0.4541736816178562</v>
+        <v>0.2647586112997115</v>
       </c>
       <c r="G39">
-        <v>4.008018512329637</v>
+        <v>2.33645730331154</v>
       </c>
       <c r="I39">
-        <v>6.06219108274342</v>
+        <v>3.533928445134149</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.264356588923467</v>
+        <v>0.7370512828453083</v>
       </c>
       <c r="C40">
-        <v>0.3993571012042905</v>
+        <v>0.2328035194617259</v>
       </c>
       <c r="E40">
-        <v>0.6630715655144475</v>
+        <v>0.3865347420673367</v>
       </c>
       <c r="F40">
-        <v>0.8175126269121409</v>
+        <v>0.4765655003394806</v>
       </c>
       <c r="G40">
-        <v>7.651671705356581</v>
+        <v>4.460509397231124</v>
       </c>
       <c r="I40">
-        <v>10.79596958791093</v>
+        <v>6.293464441944975</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>2.781584495631629</v>
+        <v>1.621512822259678</v>
       </c>
       <c r="C41">
-        <v>0.1996785506021452</v>
+        <v>0.116401759730863</v>
       </c>
       <c r="D41">
-        <v>1.307762163969219</v>
+        <v>0.7623543777556995</v>
       </c>
       <c r="E41">
-        <v>1.326143131028895</v>
+        <v>0.7730694841346735</v>
       </c>
       <c r="F41">
-        <v>1.635025253824282</v>
+        <v>0.9531310006789613</v>
       </c>
       <c r="G41">
-        <v>14.57461277210777</v>
+        <v>8.496208375678327</v>
       </c>
       <c r="I41">
-        <v>21.82480636716394</v>
+        <v>12.7226778202382</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>6.177285048740369</v>
+        <v>3.601021981901364</v>
       </c>
       <c r="C42">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D42">
-        <v>2.942464868930741</v>
+        <v>1.715297349950324</v>
       </c>
       <c r="E42">
-        <v>4.641500958601131</v>
+        <v>2.705743194471358</v>
       </c>
       <c r="F42">
-        <v>2.270868408089281</v>
+        <v>1.323793056498558</v>
       </c>
       <c r="G42">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="H42">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I42">
-        <v>35.57024990862286</v>
+        <v>20.73552552812743</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>20.55482568849866</v>
+        <v>11.98234799825657</v>
       </c>
       <c r="C43">
-        <v>0.4991963765053632</v>
+        <v>0.2910043993271573</v>
       </c>
       <c r="D43">
-        <v>3.923286491907657</v>
+        <v>2.287063133267099</v>
       </c>
       <c r="E43">
-        <v>14.91911022407507</v>
+        <v>8.697031696515078</v>
       </c>
       <c r="F43">
-        <v>5.904257861032131</v>
+        <v>3.44186194689625</v>
       </c>
       <c r="G43">
-        <v>28.42049490561015</v>
+        <v>16.56760633257274</v>
       </c>
       <c r="I43">
-        <v>74.22117154762903</v>
+        <v>43.2669155068349</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>37.17208371434995</v>
+        <v>21.66930771565206</v>
       </c>
       <c r="C44">
-        <v>0.5990356518064357</v>
+        <v>0.3492052791925888</v>
       </c>
       <c r="D44">
-        <v>9.80821622976914</v>
+        <v>5.717657833167745</v>
       </c>
       <c r="E44">
-        <v>11.93528817926005</v>
+        <v>6.957625357212062</v>
       </c>
       <c r="F44">
-        <v>7.266778905885699</v>
+        <v>4.236137780795384</v>
       </c>
       <c r="G44">
-        <v>25.8699376704913</v>
+        <v>15.08076986682904</v>
       </c>
       <c r="H44">
-        <v>1.069391064052465</v>
+        <v>0.6233969613701192</v>
       </c>
       <c r="I44">
-        <v>93.72073141561506</v>
+        <v>54.63410079421899</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>40.67615768936641</v>
+        <v>23.7119926995376</v>
       </c>
       <c r="C45">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D45">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="E45">
-        <v>7.956858786173368</v>
+        <v>4.638416904808042</v>
       </c>
       <c r="F45">
-        <v>5.813423124708558</v>
+        <v>3.388910224636307</v>
       </c>
       <c r="G45">
-        <v>18.94699660374011</v>
+        <v>11.04507088838183</v>
       </c>
       <c r="H45">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I45">
-        <v>84.25909148081868</v>
+        <v>49.11847813455473</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>30.63355392591717</v>
+        <v>17.85769965293774</v>
       </c>
       <c r="C46">
-        <v>1.497589129516089</v>
+        <v>0.873013197981472</v>
       </c>
       <c r="D46">
-        <v>9.481275688776835</v>
+        <v>5.527069238728821</v>
       </c>
       <c r="E46">
-        <v>7.29378722065892</v>
+        <v>4.251882162740705</v>
       </c>
       <c r="F46">
-        <v>6.994274696914984</v>
+        <v>4.077282614015557</v>
       </c>
       <c r="G46">
-        <v>26.23430298979399</v>
+        <v>15.293175076221</v>
       </c>
       <c r="H46">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I46">
-        <v>82.84771102761296</v>
+        <v>48.29571991687204</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>23.19191228825332</v>
+        <v>13.51962638819108</v>
       </c>
       <c r="C47">
-        <v>0.9983927530107265</v>
+        <v>0.5820087986543147</v>
       </c>
       <c r="D47">
-        <v>9.154335147784533</v>
+        <v>5.336480644289897</v>
       </c>
       <c r="E47">
-        <v>5.30457252411558</v>
+        <v>3.092277936538694</v>
       </c>
       <c r="F47">
-        <v>8.629299950739266</v>
+        <v>5.030413614694518</v>
       </c>
       <c r="G47">
-        <v>25.8699376704913</v>
+        <v>15.08076986682904</v>
       </c>
       <c r="H47">
-        <v>0.8911592200437207</v>
+        <v>0.5194974678084328</v>
       </c>
       <c r="I47">
-        <v>74.03960955443844</v>
+        <v>43.16107471700597</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>22.54167175680696</v>
+        <v>13.14057144272778</v>
       </c>
       <c r="C48">
-        <v>0.6988749271075083</v>
+        <v>0.4074061590580204</v>
       </c>
       <c r="D48">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E48">
-        <v>5.636108306872804</v>
+        <v>3.285545307572363</v>
       </c>
       <c r="F48">
-        <v>8.265961005444982</v>
+        <v>4.81860672565475</v>
       </c>
       <c r="G48">
-        <v>18.5826312844374</v>
+        <v>10.83266567898987</v>
       </c>
       <c r="H48">
-        <v>0.7129273760349768</v>
+        <v>0.4155979742467462</v>
       </c>
       <c r="I48">
-        <v>63.63086655853533</v>
+        <v>37.09334236590587</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>23.2641612361918</v>
+        <v>13.56174360435366</v>
       </c>
       <c r="C49">
-        <v>1.597428404817162</v>
+        <v>0.9312140778469037</v>
       </c>
       <c r="D49">
-        <v>7.192691901830701</v>
+        <v>4.192949077656347</v>
       </c>
       <c r="E49">
-        <v>4.309965175843908</v>
+        <v>2.512475823437689</v>
       </c>
       <c r="F49">
-        <v>6.812605224267843</v>
+        <v>3.971379169495671</v>
       </c>
       <c r="G49">
-        <v>14.93897809141046</v>
+        <v>8.708613585070287</v>
       </c>
       <c r="H49">
-        <v>0.3564636880174884</v>
+        <v>0.2077989871233731</v>
       </c>
       <c r="I49">
-        <v>58.47229372237937</v>
+        <v>34.08617432498394</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>15.64654580440183</v>
+        <v>26.84048415914674</v>
       </c>
       <c r="C2">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D2">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E2">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F2">
-        <v>5.55993083729394</v>
+        <v>9.537647313974981</v>
       </c>
       <c r="G2">
-        <v>12.10709693534162</v>
+        <v>20.76882320025357</v>
       </c>
       <c r="H2">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I2">
-        <v>39.91138539498518</v>
+        <v>68.46500952065274</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>15.54125276399535</v>
+        <v>26.65986178930054</v>
       </c>
       <c r="C3">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D3">
-        <v>7.242366588679145</v>
+        <v>12.42374055770758</v>
       </c>
       <c r="E3">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F3">
-        <v>4.500896392095095</v>
+        <v>7.720952587503555</v>
       </c>
       <c r="G3">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="H3">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I3">
-        <v>40.90528673671894</v>
+        <v>70.16997325846734</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>16.46783151957231</v>
+        <v>28.24933864394717</v>
       </c>
       <c r="C4">
-        <v>1.164017597308629</v>
+        <v>1.996785506021453</v>
       </c>
       <c r="D4">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E4">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="F4">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="G4">
-        <v>9.558234422638119</v>
+        <v>16.39643936862124</v>
       </c>
       <c r="H4">
-        <v>0.7272964549318058</v>
+        <v>1.24762290806121</v>
       </c>
       <c r="I4">
-        <v>40.61133100713919</v>
+        <v>69.66571409469356</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>21.62719049948948</v>
+        <v>37.09983476641145</v>
       </c>
       <c r="C5">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D5">
-        <v>9.338841127507319</v>
+        <v>16.02008650862293</v>
       </c>
       <c r="E5">
-        <v>4.058614791707037</v>
+        <v>6.962251437901697</v>
       </c>
       <c r="F5">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="G5">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="H5">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I5">
-        <v>45.50242428343321</v>
+        <v>78.05602037982558</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>27.98689014004042</v>
+        <v>48.00942590512253</v>
       </c>
       <c r="C6">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D6">
-        <v>8.004720966434846</v>
+        <v>13.7315027216768</v>
       </c>
       <c r="E6">
-        <v>4.83168427584171</v>
+        <v>8.288394568930594</v>
       </c>
       <c r="F6">
-        <v>3.547765391416134</v>
+        <v>6.085927333679273</v>
       </c>
       <c r="G6">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="H6">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I6">
-        <v>50.92110951672016</v>
+        <v>87.35137137841623</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>23.73305130761891</v>
+        <v>40.71228216333566</v>
       </c>
       <c r="C7">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D7">
-        <v>4.764714860973121</v>
+        <v>8.173513524807616</v>
       </c>
       <c r="E7">
-        <v>5.99128850204372</v>
+        <v>10.27760926547393</v>
       </c>
       <c r="F7">
-        <v>2.488730946217288</v>
+        <v>4.269232607207848</v>
       </c>
       <c r="G7">
-        <v>5.522535444190913</v>
+        <v>9.473498301870054</v>
       </c>
       <c r="H7">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I7">
-        <v>43.31082292817955</v>
+        <v>74.29649145924419</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>16.80476924887302</v>
+        <v>28.82733022745505</v>
       </c>
       <c r="C8">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D8">
-        <v>3.240006105461723</v>
+        <v>5.557989196869178</v>
       </c>
       <c r="E8">
-        <v>3.672080049639699</v>
+        <v>6.299179872387251</v>
       </c>
       <c r="F8">
-        <v>1.429696501018442</v>
+        <v>2.452537880736423</v>
       </c>
       <c r="G8">
-        <v>9.133424003854202</v>
+        <v>15.66770873001585</v>
       </c>
       <c r="H8">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I8">
-        <v>35.18618545435564</v>
+        <v>60.35928089909412</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>10.44506960832208</v>
+        <v>17.91773908874399</v>
       </c>
       <c r="C9">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D9">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E9">
-        <v>5.604753759976382</v>
+        <v>9.614537699959488</v>
       </c>
       <c r="F9">
-        <v>1.482648223278385</v>
+        <v>2.543372617059995</v>
       </c>
       <c r="G9">
-        <v>9.770639632030079</v>
+        <v>16.76080468792394</v>
       </c>
       <c r="H9">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I9">
-        <v>31.18681069626185</v>
+        <v>53.49865132736407</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>8.48661905676169</v>
+        <v>14.5581630096045</v>
       </c>
       <c r="C10">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D10">
-        <v>1.524708755511399</v>
+        <v>2.615524327938437</v>
       </c>
       <c r="E10">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="F10">
-        <v>0.9001792784190192</v>
+        <v>1.544190517500711</v>
       </c>
       <c r="G10">
-        <v>5.947345862974831</v>
+        <v>10.20222894047544</v>
       </c>
       <c r="I10">
-        <v>19.04520160045603</v>
+        <v>32.67062508588867</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>5.580531141543046</v>
+        <v>9.57298560184911</v>
       </c>
       <c r="C11">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D11">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E11">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F11">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="G11">
-        <v>6.372156281758746</v>
+        <v>10.93095957908083</v>
       </c>
       <c r="I11">
-        <v>15.84695233677186</v>
+        <v>27.18426664153684</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>3.158791212194177</v>
+        <v>5.418671095386287</v>
       </c>
       <c r="C12">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D12">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E12">
-        <v>1.546138968269347</v>
+        <v>2.65228626205779</v>
       </c>
       <c r="F12">
-        <v>0.3177103335596538</v>
+        <v>0.5450084179414274</v>
       </c>
       <c r="G12">
-        <v>1.911646884527624</v>
+        <v>3.279287873724248</v>
       </c>
       <c r="H12">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I12">
-        <v>7.943171999779222</v>
+        <v>13.62592005281276</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.916333335397802</v>
+        <v>3.287327131201015</v>
       </c>
       <c r="C13">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="D13">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E13">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F13">
-        <v>0.3177103335596538</v>
+        <v>0.5450084179414274</v>
       </c>
       <c r="G13">
-        <v>1.699241675135666</v>
+        <v>2.914922554421553</v>
       </c>
       <c r="I13">
-        <v>5.513602907601039</v>
+        <v>9.458175200539014</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>1.116106228308609</v>
+        <v>1.914597120369823</v>
       </c>
       <c r="C14">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D14">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E14">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F14">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="G14">
-        <v>3.186078140879373</v>
+        <v>5.465479789540416</v>
       </c>
       <c r="I14">
-        <v>6.4727904161715</v>
+        <v>11.10358994263462</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.526465202032363</v>
+        <v>0.9031118492310479</v>
       </c>
       <c r="C15">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D15">
-        <v>0.5717657833167746</v>
+        <v>0.9808216229769142</v>
       </c>
       <c r="E15">
-        <v>0.1932673710336684</v>
+        <v>0.3315357827572237</v>
       </c>
       <c r="F15">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="G15">
-        <v>1.486836465743708</v>
+        <v>2.55055723511886</v>
       </c>
       <c r="I15">
-        <v>3.545904721793152</v>
+        <v>6.08273549350155</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2948205131381231</v>
+        <v>0.505742635569387</v>
       </c>
       <c r="C16">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D16">
-        <v>0.1905885944389249</v>
+        <v>0.3269405409923046</v>
       </c>
       <c r="F16">
-        <v>0.1588551667798269</v>
+        <v>0.2725042089707137</v>
       </c>
       <c r="G16">
-        <v>2.548862512703499</v>
+        <v>4.372383831632331</v>
       </c>
       <c r="I16">
-        <v>3.367729426656668</v>
+        <v>5.777089043067955</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>1.431985349528026</v>
+        <v>2.45646422990845</v>
       </c>
       <c r="D17">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E17">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F17">
-        <v>0.4236137780795383</v>
+        <v>0.7266778905885698</v>
       </c>
       <c r="G17">
-        <v>5.310130234798956</v>
+        <v>9.109132982567358</v>
       </c>
       <c r="I17">
-        <v>8.319976035419042</v>
+        <v>14.27229931607788</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>3.453611725332301</v>
+        <v>5.924413730955678</v>
       </c>
       <c r="C18">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="D18">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E18">
-        <v>2.319208452404021</v>
+        <v>3.978429393086684</v>
       </c>
       <c r="F18">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="G18">
-        <v>11.89469172594966</v>
+        <v>20.40445788095088</v>
       </c>
       <c r="I18">
-        <v>20.03941457966191</v>
+        <v>34.3761234145796</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>10.90835898611056</v>
+        <v>18.71247751606732</v>
       </c>
       <c r="C19">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="D19">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="E19">
-        <v>8.117229583414074</v>
+        <v>13.92450287580339</v>
       </c>
       <c r="F19">
-        <v>2.753489557517</v>
+        <v>4.723406288825704</v>
       </c>
       <c r="G19">
-        <v>16.99241675135665</v>
+        <v>29.14922554421555</v>
       </c>
       <c r="H19">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I19">
-        <v>41.16368194306889</v>
+        <v>70.61323099276447</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>22.02730405303407</v>
+        <v>37.78619977182705</v>
       </c>
       <c r="C20">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D20">
-        <v>6.289423616484522</v>
+        <v>10.78903785274605</v>
       </c>
       <c r="E20">
-        <v>6.764357986178394</v>
+        <v>11.60375239650283</v>
       </c>
       <c r="F20">
-        <v>4.553848114355038</v>
+        <v>7.811787323827126</v>
       </c>
       <c r="G20">
-        <v>12.31950214473358</v>
+        <v>21.13318851955627</v>
       </c>
       <c r="H20">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I20">
-        <v>52.92703815534831</v>
+        <v>90.79239258031824</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>24.19634068540738</v>
+        <v>41.50702059065897</v>
       </c>
       <c r="C21">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D21">
-        <v>3.811771888778497</v>
+        <v>6.538810819846093</v>
       </c>
       <c r="E21">
-        <v>5.024951646875379</v>
+        <v>8.619930351687817</v>
       </c>
       <c r="F21">
-        <v>3.971379169495671</v>
+        <v>6.812605224267843</v>
       </c>
       <c r="G21">
-        <v>11.46988130716574</v>
+        <v>19.67572724234549</v>
       </c>
       <c r="H21">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I21">
-        <v>49.73793133761254</v>
+        <v>85.32171732117047</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>18.91063005700248</v>
+        <v>32.43977762437923</v>
       </c>
       <c r="C22">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D22">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="E22">
-        <v>5.024951646875379</v>
+        <v>8.619930351687817</v>
       </c>
       <c r="F22">
-        <v>4.659751558874922</v>
+        <v>7.99345679647427</v>
       </c>
       <c r="G22">
-        <v>14.44355423865316</v>
+        <v>24.7768417125832</v>
       </c>
       <c r="H22">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I22">
-        <v>49.30227177256229</v>
+        <v>84.57437578006028</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>13.33009891545942</v>
+        <v>22.86679202253013</v>
       </c>
       <c r="C23">
-        <v>0.9894149577123353</v>
+        <v>1.697267680118234</v>
       </c>
       <c r="D23">
-        <v>4.383537672095271</v>
+        <v>7.51963244282301</v>
       </c>
       <c r="E23">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F23">
-        <v>5.718786004073768</v>
+        <v>9.810151522945693</v>
       </c>
       <c r="G23">
-        <v>14.2311490292612</v>
+        <v>24.41247639328052</v>
       </c>
       <c r="H23">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I23">
-        <v>41.2090572503088</v>
+        <v>70.6910689533223</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>13.58280221243497</v>
+        <v>23.30028571016102</v>
       </c>
       <c r="C24">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D24">
-        <v>5.145892049850972</v>
+        <v>8.827394606792224</v>
       </c>
       <c r="E24">
-        <v>2.899010565505026</v>
+        <v>4.973036741358356</v>
       </c>
       <c r="F24">
-        <v>5.29517222599423</v>
+        <v>9.083473632357123</v>
       </c>
       <c r="G24">
-        <v>12.74431256351749</v>
+        <v>21.86191915816167</v>
       </c>
       <c r="H24">
-        <v>0.3116984806850596</v>
+        <v>0.5346955320262325</v>
       </c>
       <c r="I24">
-        <v>40.32809337718034</v>
+        <v>69.17984103266306</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>12.78257510534577</v>
+        <v>21.92755569932984</v>
       </c>
       <c r="C25">
-        <v>0.7566114382506091</v>
+        <v>1.297910578913944</v>
       </c>
       <c r="D25">
-        <v>3.430594699900648</v>
+        <v>5.884929737861482</v>
       </c>
       <c r="E25">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F25">
-        <v>3.335958502376365</v>
+        <v>5.722588388384987</v>
       </c>
       <c r="G25">
-        <v>9.34582921324616</v>
+        <v>16.03207404931855</v>
       </c>
       <c r="H25">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I25">
-        <v>32.37184376968062</v>
+        <v>55.53148731767021</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>14.78314287306875</v>
+        <v>25.35938072640782</v>
       </c>
       <c r="C26">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D26">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="E26">
-        <v>2.125941081370352</v>
+        <v>3.64689361032946</v>
       </c>
       <c r="F26">
-        <v>5.189268781474344</v>
+        <v>8.901804159709979</v>
       </c>
       <c r="G26">
-        <v>10.40785526020595</v>
+        <v>17.85390064583202</v>
       </c>
       <c r="H26">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I26">
-        <v>38.76959226727575</v>
+        <v>66.50634843721504</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>14.31985349528027</v>
+        <v>24.56464229908451</v>
       </c>
       <c r="C27">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D27">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E27">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F27">
-        <v>3.177103335596539</v>
+        <v>5.450084179414276</v>
       </c>
       <c r="G27">
-        <v>11.25747609777379</v>
+        <v>19.3113619230428</v>
       </c>
       <c r="H27">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I27">
-        <v>35.55346174269045</v>
+        <v>60.9893160213706</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>15.79395606097088</v>
+        <v>27.09335547693144</v>
       </c>
       <c r="C28">
-        <v>0.6402096785197463</v>
+        <v>1.098232028311799</v>
       </c>
       <c r="D28">
-        <v>7.05177799424022</v>
+        <v>12.09680001671527</v>
       </c>
       <c r="E28">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="F28">
-        <v>4.712703281134864</v>
+        <v>8.08429153279784</v>
       </c>
       <c r="G28">
-        <v>9.983044841422036</v>
+        <v>17.12517000722663</v>
       </c>
       <c r="H28">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I28">
-        <v>41.88283513810686</v>
+        <v>71.84688474489077</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>22.65906229547289</v>
+        <v>38.86993399090428</v>
       </c>
       <c r="C29">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D29">
-        <v>7.814132371995921</v>
+        <v>13.40456218068449</v>
       </c>
       <c r="E29">
-        <v>3.865347420673368</v>
+        <v>6.630715655144473</v>
       </c>
       <c r="F29">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="G29">
-        <v>6.796966700542666</v>
+        <v>11.65969021768621</v>
       </c>
       <c r="H29">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I29">
-        <v>47.38383042957298</v>
+        <v>81.28343251881532</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>25.69150185917932</v>
+        <v>44.07185824247514</v>
       </c>
       <c r="C30">
-        <v>0.8148123181160407</v>
+        <v>1.397749854215017</v>
       </c>
       <c r="D30">
-        <v>7.623543777556994</v>
+        <v>13.07762163969219</v>
       </c>
       <c r="E30">
-        <v>4.445149533774374</v>
+        <v>7.625323003416145</v>
       </c>
       <c r="F30">
-        <v>3.283006780116423</v>
+        <v>5.631753652061417</v>
       </c>
       <c r="G30">
-        <v>4.88531981601504</v>
+        <v>8.380402343961968</v>
       </c>
       <c r="H30">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I30">
-        <v>47.26283155256663</v>
+        <v>81.0758679558656</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>24.09104764500093</v>
+        <v>41.32639822081276</v>
       </c>
       <c r="C31">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D31">
-        <v>8.195309560873769</v>
+        <v>14.0584432626691</v>
       </c>
       <c r="E31">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="F31">
-        <v>2.541682668477231</v>
+        <v>4.360067343531419</v>
       </c>
       <c r="G31">
-        <v>7.858992747502455</v>
+        <v>13.48151681419969</v>
       </c>
       <c r="H31">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I31">
-        <v>49.66139628070945</v>
+        <v>85.19042713047234</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>15.33066668318241</v>
+        <v>26.29861704960812</v>
       </c>
       <c r="C32">
-        <v>0.4656070389234518</v>
+        <v>0.7987142024085809</v>
       </c>
       <c r="D32">
-        <v>7.814132371995921</v>
+        <v>13.40456218068449</v>
       </c>
       <c r="E32">
-        <v>5.218219017909045</v>
+        <v>8.95146613444504</v>
       </c>
       <c r="F32">
-        <v>2.223972334917576</v>
+        <v>3.815058925589992</v>
       </c>
       <c r="G32">
-        <v>8.921018794462247</v>
+        <v>15.30334341071316</v>
       </c>
       <c r="I32">
-        <v>39.97361624139066</v>
+        <v>68.57176190344939</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>9.686959717395476</v>
+        <v>16.61725802585128</v>
       </c>
       <c r="C33">
-        <v>0.6984105583851776</v>
+        <v>1.198071303612871</v>
       </c>
       <c r="D33">
-        <v>4.002360483217423</v>
+        <v>6.865751360838398</v>
       </c>
       <c r="E33">
-        <v>6.184555873077388</v>
+        <v>10.60914504823116</v>
       </c>
       <c r="F33">
-        <v>1.217889611978672</v>
+        <v>2.089198935442139</v>
       </c>
       <c r="G33">
-        <v>7.646587538110498</v>
+        <v>13.11715149489699</v>
       </c>
       <c r="I33">
-        <v>29.43676378216464</v>
+        <v>50.49657616887284</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>8.191798543623568</v>
+        <v>14.05242037403511</v>
       </c>
       <c r="C34">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D34">
-        <v>1.905885944389248</v>
+        <v>3.269405409923047</v>
       </c>
       <c r="E34">
-        <v>1.932673710336684</v>
+        <v>3.315357827572237</v>
       </c>
       <c r="F34">
-        <v>1.059034445198846</v>
+        <v>1.816694726471425</v>
       </c>
       <c r="G34">
-        <v>6.584561491150704</v>
+        <v>11.29532489838352</v>
       </c>
       <c r="H34">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I34">
-        <v>20.18525978731876</v>
+        <v>34.62631000750159</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>6.486051289038711</v>
+        <v>11.12633798252651</v>
       </c>
       <c r="C35">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D35">
-        <v>2.096474538828173</v>
+        <v>3.59634595091535</v>
       </c>
       <c r="E35">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="F35">
-        <v>1.3767447787585</v>
+        <v>2.361703144412852</v>
       </c>
       <c r="G35">
-        <v>7.009371909934623</v>
+        <v>12.02405553698891</v>
       </c>
       <c r="H35">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I35">
-        <v>20.30209312338194</v>
+        <v>34.82672889516316</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>3.348318684925828</v>
+        <v>5.743791361109465</v>
       </c>
       <c r="C36">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D36">
-        <v>1.143531566633549</v>
+        <v>1.961643245953828</v>
       </c>
       <c r="E36">
-        <v>1.352871597235679</v>
+        <v>2.320750479300565</v>
       </c>
       <c r="F36">
-        <v>0.6354206671193077</v>
+        <v>1.090016835882855</v>
       </c>
       <c r="G36">
-        <v>3.398483350271333</v>
+        <v>5.829845108843107</v>
       </c>
       <c r="I36">
-        <v>10.28603202524372</v>
+        <v>17.64492195819733</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>2.042684983885568</v>
+        <v>3.504073975016468</v>
       </c>
       <c r="C37">
-        <v>0.5238079187888832</v>
+        <v>0.8985534777096535</v>
       </c>
       <c r="D37">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E37">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F37">
-        <v>0.6883723893792499</v>
+        <v>1.180851572206426</v>
       </c>
       <c r="G37">
-        <v>2.124052093919582</v>
+        <v>3.643653193026943</v>
       </c>
       <c r="H37">
-        <v>0.1038994935616865</v>
+        <v>0.1782318440087442</v>
       </c>
       <c r="I37">
-        <v>6.830330923581161</v>
+        <v>11.71692405773896</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.9897545798208428</v>
+        <v>1.697850276554371</v>
       </c>
       <c r="C38">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D38">
-        <v>0.3811771888778497</v>
+        <v>0.6538810819846093</v>
       </c>
       <c r="E38">
-        <v>0.966336855168342</v>
+        <v>1.657678913786118</v>
       </c>
       <c r="F38">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="G38">
-        <v>2.33645730331154</v>
+        <v>4.008018512329637</v>
       </c>
       <c r="I38">
-        <v>5.73230022617237</v>
+        <v>9.833334164577604</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.7581098909266024</v>
+        <v>1.300481062892709</v>
       </c>
       <c r="C39">
-        <v>0.1746026395962944</v>
+        <v>0.2995178259032178</v>
       </c>
       <c r="F39">
-        <v>0.2647586112997115</v>
+        <v>0.4541736816178562</v>
       </c>
       <c r="G39">
-        <v>2.33645730331154</v>
+        <v>4.008018512329637</v>
       </c>
       <c r="I39">
-        <v>3.533928445134149</v>
+        <v>6.06219108274342</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.7370512828453083</v>
+        <v>1.264356588923467</v>
       </c>
       <c r="C40">
-        <v>0.2328035194617259</v>
+        <v>0.3993571012042905</v>
       </c>
       <c r="E40">
-        <v>0.3865347420673367</v>
+        <v>0.6630715655144475</v>
       </c>
       <c r="F40">
-        <v>0.4765655003394806</v>
+        <v>0.8175126269121409</v>
       </c>
       <c r="G40">
-        <v>4.460509397231124</v>
+        <v>7.651671705356581</v>
       </c>
       <c r="I40">
-        <v>6.293464441944975</v>
+        <v>10.79596958791093</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>1.621512822259678</v>
+        <v>2.781584495631629</v>
       </c>
       <c r="C41">
-        <v>0.116401759730863</v>
+        <v>0.1996785506021452</v>
       </c>
       <c r="D41">
-        <v>0.7623543777556995</v>
+        <v>1.307762163969219</v>
       </c>
       <c r="E41">
-        <v>0.7730694841346735</v>
+        <v>1.326143131028895</v>
       </c>
       <c r="F41">
-        <v>0.9531310006789613</v>
+        <v>1.635025253824282</v>
       </c>
       <c r="G41">
-        <v>8.496208375678327</v>
+        <v>14.57461277210777</v>
       </c>
       <c r="I41">
-        <v>12.7226778202382</v>
+        <v>21.82480636716394</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>3.601021981901364</v>
+        <v>6.177285048740369</v>
       </c>
       <c r="C42">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D42">
-        <v>1.715297349950324</v>
+        <v>2.942464868930741</v>
       </c>
       <c r="E42">
-        <v>2.705743194471358</v>
+        <v>4.641500958601131</v>
       </c>
       <c r="F42">
-        <v>1.323793056498558</v>
+        <v>2.270868408089281</v>
       </c>
       <c r="G42">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="H42">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I42">
-        <v>20.73552552812743</v>
+        <v>35.57024990862286</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>11.98234799825657</v>
+        <v>20.55482568849866</v>
       </c>
       <c r="C43">
-        <v>0.2910043993271573</v>
+        <v>0.4991963765053632</v>
       </c>
       <c r="D43">
-        <v>2.287063133267099</v>
+        <v>3.923286491907657</v>
       </c>
       <c r="E43">
-        <v>8.697031696515078</v>
+        <v>14.91911022407507</v>
       </c>
       <c r="F43">
-        <v>3.44186194689625</v>
+        <v>5.904257861032131</v>
       </c>
       <c r="G43">
-        <v>16.56760633257274</v>
+        <v>28.42049490561015</v>
       </c>
       <c r="I43">
-        <v>43.2669155068349</v>
+        <v>74.22117154762903</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>21.66930771565206</v>
+        <v>37.17208371434995</v>
       </c>
       <c r="C44">
-        <v>0.3492052791925888</v>
+        <v>0.5990356518064357</v>
       </c>
       <c r="D44">
-        <v>5.717657833167745</v>
+        <v>9.80821622976914</v>
       </c>
       <c r="E44">
-        <v>6.957625357212062</v>
+        <v>11.93528817926005</v>
       </c>
       <c r="F44">
-        <v>4.236137780795384</v>
+        <v>7.266778905885699</v>
       </c>
       <c r="G44">
-        <v>15.08076986682904</v>
+        <v>25.8699376704913</v>
       </c>
       <c r="H44">
-        <v>0.6233969613701192</v>
+        <v>1.069391064052465</v>
       </c>
       <c r="I44">
-        <v>54.63410079421899</v>
+        <v>93.72073141561506</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>23.7119926995376</v>
+        <v>40.67615768936641</v>
       </c>
       <c r="C45">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D45">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="E45">
-        <v>4.638416904808042</v>
+        <v>7.956858786173368</v>
       </c>
       <c r="F45">
-        <v>3.388910224636307</v>
+        <v>5.813423124708558</v>
       </c>
       <c r="G45">
-        <v>11.04507088838183</v>
+        <v>18.94699660374011</v>
       </c>
       <c r="H45">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I45">
-        <v>49.11847813455473</v>
+        <v>84.25909148081868</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>17.85769965293774</v>
+        <v>30.63355392591717</v>
       </c>
       <c r="C46">
-        <v>0.873013197981472</v>
+        <v>1.497589129516089</v>
       </c>
       <c r="D46">
-        <v>5.527069238728821</v>
+        <v>9.481275688776835</v>
       </c>
       <c r="E46">
-        <v>4.251882162740705</v>
+        <v>7.29378722065892</v>
       </c>
       <c r="F46">
-        <v>4.077282614015557</v>
+        <v>6.994274696914984</v>
       </c>
       <c r="G46">
-        <v>15.293175076221</v>
+        <v>26.23430298979399</v>
       </c>
       <c r="H46">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I46">
-        <v>48.29571991687204</v>
+        <v>82.84771102761296</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>13.51962638819108</v>
+        <v>23.19191228825332</v>
       </c>
       <c r="C47">
-        <v>0.5820087986543147</v>
+        <v>0.9983927530107265</v>
       </c>
       <c r="D47">
-        <v>5.336480644289897</v>
+        <v>9.154335147784533</v>
       </c>
       <c r="E47">
-        <v>3.092277936538694</v>
+        <v>5.30457252411558</v>
       </c>
       <c r="F47">
-        <v>5.030413614694518</v>
+        <v>8.629299950739266</v>
       </c>
       <c r="G47">
-        <v>15.08076986682904</v>
+        <v>25.8699376704913</v>
       </c>
       <c r="H47">
-        <v>0.5194974678084328</v>
+        <v>0.8911592200437207</v>
       </c>
       <c r="I47">
-        <v>43.16107471700597</v>
+        <v>74.03960955443844</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>13.14057144272778</v>
+        <v>22.54167175680696</v>
       </c>
       <c r="C48">
-        <v>0.4074061590580204</v>
+        <v>0.6988749271075083</v>
       </c>
       <c r="D48">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E48">
-        <v>3.285545307572363</v>
+        <v>5.636108306872804</v>
       </c>
       <c r="F48">
-        <v>4.81860672565475</v>
+        <v>8.265961005444982</v>
       </c>
       <c r="G48">
-        <v>10.83266567898987</v>
+        <v>18.5826312844374</v>
       </c>
       <c r="H48">
-        <v>0.4155979742467462</v>
+        <v>0.7129273760349768</v>
       </c>
       <c r="I48">
-        <v>37.09334236590587</v>
+        <v>63.63086655853533</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>13.56174360435366</v>
+        <v>23.2641612361918</v>
       </c>
       <c r="C49">
-        <v>0.9312140778469037</v>
+        <v>1.597428404817162</v>
       </c>
       <c r="D49">
-        <v>4.192949077656347</v>
+        <v>7.192691901830701</v>
       </c>
       <c r="E49">
-        <v>2.512475823437689</v>
+        <v>4.309965175843908</v>
       </c>
       <c r="F49">
-        <v>3.971379169495671</v>
+        <v>6.812605224267843</v>
       </c>
       <c r="G49">
-        <v>8.708613585070287</v>
+        <v>14.93897809141046</v>
       </c>
       <c r="H49">
-        <v>0.2077989871233731</v>
+        <v>0.3564636880174884</v>
       </c>
       <c r="I49">
-        <v>34.08617432498394</v>
+        <v>58.47229372237937</v>
       </c>
     </row>
   </sheetData>
